--- a/RUDN/Importance/Varible_muatal_in_Polynesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Polynesia.xlsx
@@ -37,21 +37,21 @@
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
@@ -94,21 +94,24 @@
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -121,12 +124,12 @@
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
@@ -196,15 +196,15 @@
     <t>Female population 60-64</t>
   </si>
   <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -259,54 +259,54 @@
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
@@ -385,24 +385,24 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
@@ -445,6 +445,9 @@
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -454,18 +457,15 @@
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
@@ -475,6 +475,9 @@
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
@@ -484,9 +487,6 @@
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
@@ -547,99 +547,126 @@
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+    <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
@@ -652,36 +679,9 @@
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
@@ -691,84 +691,84 @@
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
+    <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -805,61 +805,61 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.238788204184117</v>
+        <v>1.230851696247609</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.185001448611647</v>
+        <v>1.182389245999445</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.174452738062937</v>
+        <v>1.182355945966145</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.156764473946101</v>
+        <v>1.160121519811464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.152185011874956</v>
+        <v>1.156764473946101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.136139596178366</v>
+        <v>1.144076104114875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.108731386851205</v>
+        <v>1.11349329161311</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.98907049219031</v>
+        <v>0.9930387461585637</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.970665276568708</v>
+        <v>0.9754752813787129</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9590057156969625</v>
+        <v>0.9636732606481211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9557367527116132</v>
+        <v>0.9593893165003708</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9540983112093657</v>
+        <v>0.9590057156969625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.941170442504546</v>
+        <v>0.9417431074679681</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9396826115524295</v>
+        <v>0.941170442504546</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9394106943162268</v>
+        <v>0.9396826115524295</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9365456594133763</v>
+        <v>0.9394106943162268</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.931511089764145</v>
+        <v>0.9341647070324244</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9290446947695554</v>
+        <v>0.9321219982943083</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9245031811944275</v>
+        <v>0.931511089764145</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9244931383272426</v>
+        <v>0.9245031811944275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9243917846544596</v>
+        <v>0.9244931383272426</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9241854903578002</v>
+        <v>0.9243917846544596</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9097155872573137</v>
+        <v>0.9160931382777218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.8653579016046546</v>
+        <v>0.8672360665773287</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.8632426727175324</v>
+        <v>0.8653579016046546</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.8592995586408205</v>
+        <v>0.8632426727175324</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.855152517974902</v>
+        <v>0.8630890259114097</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8266659985358162</v>
+        <v>0.830067359080034</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7901763375820623</v>
+        <v>0.7906334133960888</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7849601365613941</v>
+        <v>0.7901763375820623</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7840777399673498</v>
+        <v>0.7849601365613941</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7828644959053419</v>
+        <v>0.7840777399673498</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7826969054595807</v>
+        <v>0.7819196735319482</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7668422574620752</v>
+        <v>0.7671295856187095</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7666810192199811</v>
+        <v>0.7668422574620752</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7611241660296983</v>
+        <v>0.7666810192199811</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7611241660296983</v>
+        <v>0.7665869266256962</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.759193077682202</v>
+        <v>0.7611241660296983</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7588288166340613</v>
+        <v>0.7611241660296983</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7586504186891883</v>
+        <v>0.7588288166340613</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.7397591553789733</v>
+        <v>0.7444426240050268</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7396807192431218</v>
+        <v>0.7397591553789733</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7028214045701477</v>
+        <v>0.7058431375343841</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.7018748835661301</v>
+        <v>0.7028214045701477</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6518822533885185</v>
+        <v>0.6517203184427178</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6517203184427178</v>
+        <v>0.6492367507430157</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6113655158618092</v>
+        <v>0.6140097321892579</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6092478274273536</v>
+        <v>0.6113655158618092</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5912807182837736</v>
+        <v>0.5915066511915954</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5906607752761162</v>
+        <v>0.5912807182837736</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5897985452403445</v>
+        <v>0.5906607752761162</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5864863038918364</v>
+        <v>0.5897985452403445</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5839888013943337</v>
+        <v>0.5871941585942437</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5835701432550877</v>
+        <v>0.5864863038918364</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5792576506577358</v>
+        <v>0.5839888013943337</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5548406317208177</v>
+        <v>0.5570192213537211</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5525692949748278</v>
+        <v>0.5548406317208177</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5520219419091019</v>
+        <v>0.5525692949748278</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5490827134172132</v>
+        <v>0.5520219419091019</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5158384993154601</v>
+        <v>0.5137562262032707</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5137562262032707</v>
+        <v>0.5118702453472066</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5074400006348945</v>
+        <v>0.505739320362786</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4893553264037158</v>
+        <v>0.4978092939450363</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.4888375893211576</v>
+        <v>0.4893553264037158</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.4790174264992604</v>
+        <v>0.4787056351160406</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.4357144013430896</v>
+        <v>0.4345390774123474</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4310243333881214</v>
+        <v>0.4328371903798311</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4290758828890582</v>
+        <v>0.4310243333881214</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4232000021712139</v>
+        <v>0.4290758828890582</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4014629327460941</v>
+        <v>0.4016978951521093</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3944983298260814</v>
+        <v>0.3948567693224474</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3933686740843521</v>
+        <v>0.3931755785033297</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3828319738952521</v>
+        <v>0.3785756485981213</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3785756485981213</v>
+        <v>0.3769667406448678</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.37115014656339</v>
+        <v>0.375689116752395</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3690302327083601</v>
+        <v>0.37115014656339</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3491362613969704</v>
+        <v>0.352595303444307</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3490062599378865</v>
+        <v>0.3491362613969704</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3483280447013448</v>
+        <v>0.3488482348162858</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3474587297388925</v>
+        <v>0.3372012164098819</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3372012164098819</v>
+        <v>0.3348203069192224</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3348203069192224</v>
+        <v>0.3300537032464408</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3300537032464408</v>
+        <v>0.3257997045884742</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3018552257961022</v>
+        <v>0.3007214389480299</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2633989187107981</v>
+        <v>0.2608230345559663</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2428484108119875</v>
+        <v>0.2507849187484954</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2384265560283509</v>
+        <v>0.2397493073511021</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.120685308218339</v>
+        <v>0.1435052695361994</v>
       </c>
     </row>
     <row r="265" spans="1:2">
